--- a/FoodStore_utforskandeTest.xlsx
+++ b/FoodStore_utforskandeTest.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89f26c2605e48097/Skrivbord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="8_{31B0E98D-F1E6-435D-969B-46DBF25D712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9479F198-26AF-476E-9C49-B18433D33E5E}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="8_{31B0E98D-F1E6-435D-969B-46DBF25D712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29EFE713-6348-4994-B576-D6064D7F8FD2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{52F88BF0-60C5-406F-A569-D6BD3D4E146A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{52F88BF0-60C5-406F-A569-D6BD3D4E146A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="186">
   <si>
     <t>Kartläggning av REST-api Mataffären</t>
   </si>
@@ -48,9 +49,6 @@
   </si>
   <si>
     <t>Kategori</t>
-  </si>
-  <si>
-    <t>Sortering</t>
   </si>
   <si>
     <t>Frukt och grönt</t>
@@ -544,13 +542,68 @@
   </si>
   <si>
     <t>Ej tomma kategorier</t>
+  </si>
+  <si>
+    <t>Kartlägg/förstå REST-api:t (dokumentera i kalkylark). Hur?</t>
+  </si>
+  <si>
+    <t>* hämtar man en lista över kategorier (och underkategorier)?</t>
+  </si>
+  <si>
+    <t>* hämtas produkter inom en kategori?</t>
+  </si>
+  <si>
+    <t>se blad1</t>
+  </si>
+  <si>
+    <t>* sorteras produkter beroende på sorteringsval?</t>
+  </si>
+  <si>
+    <t>A-Ö</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/api/c/brod-och-kakor/brod/baguetter-och-losbrod?size=30&amp;page=0&amp;sort=name-asc</t>
+  </si>
+  <si>
+    <t>Ö-A</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/api/c/brod-och-kakor/brod/baguetter-och-losbrod?size=30&amp;page=0&amp;sort=name-desc</t>
+  </si>
+  <si>
+    <t>Pris (Billigast - Dyrast)</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/api/c/brod-och-kakor/brod/baguetter-och-losbrod?size=30&amp;page=0&amp;sort=price-asc</t>
+  </si>
+  <si>
+    <t>Pris (Dyrast - Billigast)</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/api/c/brod-och-kakor/brod/baguetter-och-losbrod?size=30&amp;page=0&amp;sort=price-desc</t>
+  </si>
+  <si>
+    <t>Jämförpris (Billigast - Dyrast)</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/api/c/brod-och-kakor/brod/baguetter-och-losbrod?size=30&amp;page=0&amp;sort=compareprice-asc</t>
+  </si>
+  <si>
+    <t>Jämförpris (Dyrast - Billigast)</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/api/c/brod-och-kakor/brod/baguetter-och-losbrod?size=30&amp;page=0&amp;sort=compareprice-desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RestRoute för att få fram en lista på alla varor: 
+http://localhost:5173/api/leftMenu/categorytree </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +623,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -602,10 +670,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -614,7 +681,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -631,6 +706,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -950,11 +1029,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E212650-86B7-482D-9A53-22AB0F4E595C}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -965,15 +1044,15 @@
     <col min="4" max="4" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -984,1010 +1063,1007 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
         <v>118</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+      <c r="E5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D15" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
         <v>124</v>
       </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
         <v>32</v>
       </c>
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="4" t="s">
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
         <v>127</v>
       </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="4" t="s">
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
         <v>38</v>
       </c>
-      <c r="E29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" t="s">
         <v>39</v>
       </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" t="s">
-        <v>40</v>
-      </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>154</v>
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>108</v>
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>108</v>
+        <v>43</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>108</v>
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>108</v>
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>108</v>
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>108</v>
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>155</v>
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>108</v>
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="4" t="s">
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
         <v>136</v>
       </c>
-      <c r="C44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>108</v>
+      <c r="E45" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>155</v>
+        <v>54</v>
+      </c>
+      <c r="E46" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>108</v>
+        <v>56</v>
+      </c>
+      <c r="E48" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>108</v>
+        <v>57</v>
+      </c>
+      <c r="E49" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="4" t="s">
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" t="s">
         <v>139</v>
       </c>
-      <c r="C51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>108</v>
+      <c r="E52" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>108</v>
+        <v>62</v>
+      </c>
+      <c r="E53" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>108</v>
+        <v>63</v>
+      </c>
+      <c r="E54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D55" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>108</v>
+        <v>64</v>
+      </c>
+      <c r="E55" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>108</v>
+        <v>65</v>
+      </c>
+      <c r="E56" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>108</v>
+        <v>66</v>
+      </c>
+      <c r="E57" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>108</v>
+        <v>67</v>
+      </c>
+      <c r="E58" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>155</v>
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D60" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>155</v>
+        <v>68</v>
+      </c>
+      <c r="E60" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>108</v>
+        <v>69</v>
+      </c>
+      <c r="E61" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B63" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
         <v>71</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B63" s="4" t="s">
+      <c r="E63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B64" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
         <v>142</v>
       </c>
-      <c r="C63" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B64" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>108</v>
+      <c r="E64" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>155</v>
+        <v>73</v>
+      </c>
+      <c r="E65" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>108</v>
+        <v>74</v>
+      </c>
+      <c r="E66" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>108</v>
+        <v>75</v>
+      </c>
+      <c r="E67" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>155</v>
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B70" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" t="s">
         <v>145</v>
       </c>
-      <c r="C69" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>77</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B70" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" t="s">
-        <v>146</v>
-      </c>
-      <c r="D70" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>155</v>
+      <c r="E70" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D71" t="s">
-        <v>79</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>155</v>
+        <v>78</v>
+      </c>
+      <c r="E71" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D72" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>155</v>
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D73" t="s">
-        <v>80</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>155</v>
+        <v>79</v>
+      </c>
+      <c r="E73" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D74" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B75" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" t="s">
         <v>81</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B75" s="4" t="s">
+      <c r="D75" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B76" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" t="s">
         <v>148</v>
       </c>
-      <c r="C75" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>83</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B76" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" t="s">
-        <v>84</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>108</v>
+      <c r="E76" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D77" t="s">
-        <v>85</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>155</v>
+        <v>84</v>
+      </c>
+      <c r="E77" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D78" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="E78" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D79" t="s">
-        <v>87</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>155</v>
+        <v>86</v>
+      </c>
+      <c r="E79" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D80" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>108</v>
+        <v>87</v>
+      </c>
+      <c r="E80" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D81" t="s">
-        <v>89</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>155</v>
+        <v>88</v>
+      </c>
+      <c r="E81" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B83" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" t="s">
         <v>90</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B83" s="4" t="s">
+      <c r="D83" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" t="s">
         <v>151</v>
       </c>
-      <c r="C83" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>92</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B84" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C84" t="s">
-        <v>152</v>
-      </c>
-      <c r="D84" t="s">
-        <v>93</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>108</v>
+      <c r="E84" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D85" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>108</v>
+        <v>22</v>
+      </c>
+      <c r="E85" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D86" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="E86" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D87" t="s">
-        <v>95</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="E87" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D88" t="s">
-        <v>96</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="E88" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D89" t="s">
-        <v>97</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
+      </c>
+      <c r="E89" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D90" t="s">
-        <v>98</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
+      </c>
+      <c r="E90" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D91" t="s">
-        <v>156</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>108</v>
+        <v>155</v>
+      </c>
+      <c r="E91" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D92" t="s">
+        <v>156</v>
+      </c>
+      <c r="E92" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B93" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B93" s="4" t="s">
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B94" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C93" t="s">
-        <v>64</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C94" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B95" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" t="s">
         <v>109</v>
       </c>
-      <c r="E93" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B94" s="4" t="s">
+      <c r="E95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B96" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" t="s">
+        <v>101</v>
+      </c>
+      <c r="D96" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B97" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B98" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B99" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C94" t="s">
-        <v>100</v>
-      </c>
-      <c r="D94" t="s">
-        <v>111</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B95" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C95" t="s">
-        <v>101</v>
-      </c>
-      <c r="D95" t="s">
-        <v>110</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B96" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C96" t="s">
-        <v>102</v>
-      </c>
-      <c r="D96" t="s">
-        <v>112</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B97" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C97" t="s">
-        <v>103</v>
-      </c>
-      <c r="D97" t="s">
-        <v>113</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B98" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>104</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>114</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B99" s="4" t="s">
+      <c r="E99" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B100" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>105</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>115</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B100" s="4" t="s">
+      <c r="E100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B101" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>106</v>
       </c>
-      <c r="D100" t="s">
-        <v>116</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B101" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C101" t="s">
-        <v>107</v>
-      </c>
       <c r="D101" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2030,4 +2106,120 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAE7EB1-5CD1-4DC8-A640-2D9EEA15B8D4}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="94.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{90BBBF98-779F-42CE-AC43-ECF9B675E868}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{2D3BA17E-89B4-47C8-98AE-0189E3B1AD81}"/>
+    <hyperlink ref="A15" r:id="rId3" xr:uid="{E04BDEC7-15C0-4EBB-B4E6-48883EF1A2EF}"/>
+    <hyperlink ref="A17" r:id="rId4" xr:uid="{64485A1A-40C4-470C-BFE3-948FAA36DF32}"/>
+    <hyperlink ref="A19" r:id="rId5" xr:uid="{13029722-A4F9-444C-B376-1202C7160F09}"/>
+    <hyperlink ref="A21" r:id="rId6" xr:uid="{AB312F91-5EB2-49CA-B29A-A6D0B59B3E97}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FoodStore_utforskandeTest.xlsx
+++ b/FoodStore_utforskandeTest.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89f26c2605e48097/Skrivbord/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liaak\Documents\PVT\Programmering\Foodstore-Postman-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="8_{31B0E98D-F1E6-435D-969B-46DBF25D712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29EFE713-6348-4994-B576-D6064D7F8FD2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6349A7-909B-4C2A-AB3A-19CA26E8BC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{52F88BF0-60C5-406F-A569-D6BD3D4E146A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{52F88BF0-60C5-406F-A569-D6BD3D4E146A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="Kartläggning" sheetId="1" r:id="rId1"/>
+    <sheet name="Kartläggningssvar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="183">
   <si>
     <t>Kartläggning av REST-api Mataffären</t>
   </si>
@@ -432,18 +430,6 @@
     <t>/Fisk och skaldjurskonserver</t>
   </si>
   <si>
-    <t>http://localhost:5173/api/c/skafferi/konserver-och-burkar/fisk-och-skaldjurskonserver/fiskbullar?size=30&amp;page=0&amp;sort=topRated</t>
-  </si>
-  <si>
-    <t>http://localhost:5173/api/c/skafferi/konserver-och-burkar/fisk-och-skaldjurskonserver/tonfisk-och-makrill?size=30&amp;page=0&amp;sort=topRated</t>
-  </si>
-  <si>
-    <t>/Fiskbullar</t>
-  </si>
-  <si>
-    <t>/Tonfisk &amp; makrill</t>
-  </si>
-  <si>
     <t>http://localhost:5173/api/c/brod-och-kakor?size=30&amp;page=0&amp;sort=topRated</t>
   </si>
   <si>
@@ -471,10 +457,6 @@
     <t>http://localhost:5173/api/c/fisk-och-skaldjur/kaviar-och-rom?size=30&amp;page=0&amp;sort=topRated</t>
   </si>
   <si>
-    <t xml:space="preserve">
-http://localhost:5173/api/c/vegetariskt?size=30&amp;page=0&amp;sort=topRated</t>
-  </si>
-  <si>
     <t>/Tofu</t>
   </si>
   <si>
@@ -538,12 +520,6 @@
     <t>http://localhost:5173/api/c/apotek?size=30&amp;page=0&amp;sort=topRated</t>
   </si>
   <si>
-    <t>Finns namn,pris,bild</t>
-  </si>
-  <si>
-    <t>Ej tomma kategorier</t>
-  </si>
-  <si>
     <t>Kartlägg/förstå REST-api:t (dokumentera i kalkylark). Hur?</t>
   </si>
   <si>
@@ -551,9 +527,6 @@
   </si>
   <si>
     <t>* hämtas produkter inom en kategori?</t>
-  </si>
-  <si>
-    <t>se blad1</t>
   </si>
   <si>
     <t>* sorteras produkter beroende på sorteringsval?</t>
@@ -597,13 +570,49 @@
   <si>
     <t xml:space="preserve">RestRoute för att få fram en lista på alla varor: 
 http://localhost:5173/api/leftMenu/categorytree </t>
+  </si>
+  <si>
+    <t>se Kartläggning</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/api/c/vegetariskt?size=30&amp;page=0&amp;sort=topRated</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">http://localhost:5173/api/c/skafferi/pasta-ris-och-matgryn?size=30&amp;page=0&amp;sort=topRated </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>http://localhost:5173/api/c/skafferi/pasta-ris-och-matgryn/pasta?size=30&amp;page=0&amp;sort=topRated</t>
+  </si>
+  <si>
+    <t>Underkategori 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +651,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -670,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -681,13 +702,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1031,9 +1051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E212650-86B7-482D-9A53-22AB0F4E595C}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1047,8 +1067,8 @@
     <col min="7" max="7" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1072,11 +1092,9 @@
         <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1106,7 +1124,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1130,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1245,7 +1263,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1326,7 +1344,7 @@
         <v>107</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1358,12 +1376,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" t="s">
-        <v>133</v>
-      </c>
+      <c r="B31" s="3"/>
       <c r="D31" t="s">
         <v>9</v>
       </c>
@@ -1372,12 +1385,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" t="s">
-        <v>134</v>
-      </c>
+      <c r="B32" s="3"/>
       <c r="D32" t="s">
         <v>39</v>
       </c>
@@ -1385,7 +1393,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>40</v>
       </c>
@@ -1393,18 +1401,27 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="D34" t="s">
         <v>41</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="D35" t="s">
         <v>42</v>
       </c>
@@ -1412,7 +1429,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>43</v>
       </c>
@@ -1420,7 +1437,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>44</v>
       </c>
@@ -1428,7 +1445,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>45</v>
       </c>
@@ -1436,7 +1453,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>46</v>
       </c>
@@ -1444,7 +1461,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>47</v>
       </c>
@@ -1452,15 +1469,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>49</v>
       </c>
@@ -1468,17 +1485,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -1490,12 +1507,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
         <v>53</v>
@@ -1504,15 +1521,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>55</v>
       </c>
@@ -1520,7 +1537,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
         <v>56</v>
       </c>
@@ -1546,7 +1563,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
         <v>59</v>
@@ -1560,10 +1577,10 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
         <v>61</v>
@@ -1625,7 +1642,7 @@
         <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.35">
@@ -1633,7 +1650,7 @@
         <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.35">
@@ -1649,12 +1666,12 @@
         <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" t="s">
         <v>62</v>
@@ -1668,10 +1685,10 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D64" t="s">
         <v>72</v>
@@ -1685,7 +1702,7 @@
         <v>73</v>
       </c>
       <c r="E65" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
@@ -1709,12 +1726,12 @@
         <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B69" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B69" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
@@ -1723,21 +1740,21 @@
         <v>76</v>
       </c>
       <c r="E69" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D70" t="s">
         <v>77</v>
       </c>
       <c r="E70" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.35">
@@ -1745,7 +1762,7 @@
         <v>78</v>
       </c>
       <c r="E71" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.35">
@@ -1753,7 +1770,7 @@
         <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.35">
@@ -1761,7 +1778,7 @@
         <v>79</v>
       </c>
       <c r="E73" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.35">
@@ -1769,12 +1786,12 @@
         <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
         <v>81</v>
@@ -1788,10 +1805,10 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D76" t="s">
         <v>83</v>
@@ -1805,7 +1822,7 @@
         <v>84</v>
       </c>
       <c r="E77" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.35">
@@ -1821,7 +1838,7 @@
         <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.35">
@@ -1837,7 +1854,7 @@
         <v>88</v>
       </c>
       <c r="E81" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.35">
@@ -1845,12 +1862,12 @@
         <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -1864,10 +1881,10 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C84" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D84" t="s">
         <v>92</v>
@@ -1926,7 +1943,7 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D91" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E91" t="s">
         <v>107</v>
@@ -1934,15 +1951,15 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D92" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E92" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C93" t="s">
         <v>63</v>
@@ -1956,7 +1973,7 @@
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C94" t="s">
         <v>99</v>
@@ -1965,12 +1982,12 @@
         <v>110</v>
       </c>
       <c r="E94" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C95" t="s">
         <v>100</v>
@@ -1984,7 +2001,7 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C96" t="s">
         <v>101</v>
@@ -1998,7 +2015,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B97" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C97" t="s">
         <v>102</v>
@@ -2012,7 +2029,7 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B98" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C98" t="s">
         <v>103</v>
@@ -2026,7 +2043,7 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B99" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C99" t="s">
         <v>104</v>
@@ -2040,7 +2057,7 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B100" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C100" t="s">
         <v>105</v>
@@ -2049,12 +2066,12 @@
         <v>115</v>
       </c>
       <c r="E100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C101" t="s">
         <v>106</v>
@@ -2063,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2080,28 +2097,28 @@
     <hyperlink ref="B28" r:id="rId7" xr:uid="{B00A35A2-293D-4D28-9B36-16FA4BD70383}"/>
     <hyperlink ref="B29" r:id="rId8" xr:uid="{3BDB18A1-A91F-49EA-A6C0-CE793449BA2C}"/>
     <hyperlink ref="B30" r:id="rId9" xr:uid="{00BA0490-8467-4D41-AF91-9DCA35EB6235}"/>
-    <hyperlink ref="B31" r:id="rId10" xr:uid="{1B3FBFE0-C0D8-47A7-82CD-3EAB6F4F36AD}"/>
-    <hyperlink ref="B32" r:id="rId11" xr:uid="{9BAF8B60-1FFC-4E10-9165-D12EDA260CE8}"/>
-    <hyperlink ref="B44" r:id="rId12" xr:uid="{39E896FF-FC17-42F1-8DB0-7A97C434C255}"/>
-    <hyperlink ref="B45" r:id="rId13" xr:uid="{8557BA69-8815-4799-93EF-D3AF54AF6201}"/>
-    <hyperlink ref="B51" r:id="rId14" xr:uid="{9C6890B9-57ED-4BC3-87B2-F068AFAB7556}"/>
-    <hyperlink ref="B52" r:id="rId15" xr:uid="{CED6FE0B-5331-4524-A8BF-34E32182DB9A}"/>
-    <hyperlink ref="B63" r:id="rId16" xr:uid="{05FC5125-BBC4-4DED-8E3A-ED62BE7312AE}"/>
-    <hyperlink ref="B64" r:id="rId17" xr:uid="{E70C024D-42DD-49C0-8F7F-39775F0C0DF0}"/>
-    <hyperlink ref="B70" r:id="rId18" xr:uid="{6B023CD5-957C-4D86-BACD-5DABF3CAF1A5}"/>
-    <hyperlink ref="B75" r:id="rId19" xr:uid="{15CE7D32-47FB-4BCF-8CAF-1891744599A0}"/>
-    <hyperlink ref="B76" r:id="rId20" xr:uid="{95546D60-6469-4D89-8543-EB22EA303B7C}"/>
-    <hyperlink ref="B83" r:id="rId21" xr:uid="{B31E63B5-EFAD-4515-9918-93ABC3FC45BC}"/>
-    <hyperlink ref="B84" r:id="rId22" xr:uid="{7E50859A-1804-481D-94F8-459B224B81F3}"/>
-    <hyperlink ref="B93" r:id="rId23" xr:uid="{9E12C4E2-34A2-40CD-9999-61B82C636D84}"/>
-    <hyperlink ref="B94" r:id="rId24" xr:uid="{4470CCB4-6DB5-4233-BBCA-78E41A3CF2D1}"/>
-    <hyperlink ref="B95" r:id="rId25" xr:uid="{DF97794C-BC67-45E9-924B-FD6E625FA71A}"/>
-    <hyperlink ref="B96" r:id="rId26" xr:uid="{DDC9178E-0E19-4E34-927C-3C4A4E9BA3FB}"/>
-    <hyperlink ref="B97" r:id="rId27" xr:uid="{83797E77-9B45-4D48-BC4F-BDAEF37D703A}"/>
-    <hyperlink ref="B98" r:id="rId28" xr:uid="{2885162A-28BB-4507-AC7B-41C49878BDBB}"/>
-    <hyperlink ref="B99" r:id="rId29" xr:uid="{11447FEC-666A-4016-8C1A-A53312A7BB85}"/>
-    <hyperlink ref="B100" r:id="rId30" xr:uid="{DBA8022C-2B43-4BC9-BC42-48619F4147B3}"/>
-    <hyperlink ref="B101" r:id="rId31" xr:uid="{25AF198B-932E-439F-8EFF-3510CD432A7F}"/>
+    <hyperlink ref="B44" r:id="rId10" xr:uid="{39E896FF-FC17-42F1-8DB0-7A97C434C255}"/>
+    <hyperlink ref="B45" r:id="rId11" xr:uid="{8557BA69-8815-4799-93EF-D3AF54AF6201}"/>
+    <hyperlink ref="B51" r:id="rId12" xr:uid="{9C6890B9-57ED-4BC3-87B2-F068AFAB7556}"/>
+    <hyperlink ref="B52" r:id="rId13" xr:uid="{CED6FE0B-5331-4524-A8BF-34E32182DB9A}"/>
+    <hyperlink ref="B63" r:id="rId14" xr:uid="{05FC5125-BBC4-4DED-8E3A-ED62BE7312AE}"/>
+    <hyperlink ref="B64" r:id="rId15" xr:uid="{E70C024D-42DD-49C0-8F7F-39775F0C0DF0}"/>
+    <hyperlink ref="B70" r:id="rId16" xr:uid="{6B023CD5-957C-4D86-BACD-5DABF3CAF1A5}"/>
+    <hyperlink ref="B75" r:id="rId17" xr:uid="{15CE7D32-47FB-4BCF-8CAF-1891744599A0}"/>
+    <hyperlink ref="B76" r:id="rId18" xr:uid="{95546D60-6469-4D89-8543-EB22EA303B7C}"/>
+    <hyperlink ref="B83" r:id="rId19" xr:uid="{B31E63B5-EFAD-4515-9918-93ABC3FC45BC}"/>
+    <hyperlink ref="B84" r:id="rId20" xr:uid="{7E50859A-1804-481D-94F8-459B224B81F3}"/>
+    <hyperlink ref="B93" r:id="rId21" xr:uid="{9E12C4E2-34A2-40CD-9999-61B82C636D84}"/>
+    <hyperlink ref="B94" r:id="rId22" xr:uid="{4470CCB4-6DB5-4233-BBCA-78E41A3CF2D1}"/>
+    <hyperlink ref="B95" r:id="rId23" xr:uid="{DF97794C-BC67-45E9-924B-FD6E625FA71A}"/>
+    <hyperlink ref="B96" r:id="rId24" xr:uid="{DDC9178E-0E19-4E34-927C-3C4A4E9BA3FB}"/>
+    <hyperlink ref="B97" r:id="rId25" xr:uid="{83797E77-9B45-4D48-BC4F-BDAEF37D703A}"/>
+    <hyperlink ref="B98" r:id="rId26" xr:uid="{2885162A-28BB-4507-AC7B-41C49878BDBB}"/>
+    <hyperlink ref="B99" r:id="rId27" xr:uid="{11447FEC-666A-4016-8C1A-A53312A7BB85}"/>
+    <hyperlink ref="B100" r:id="rId28" xr:uid="{DBA8022C-2B43-4BC9-BC42-48619F4147B3}"/>
+    <hyperlink ref="B101" r:id="rId29" xr:uid="{25AF198B-932E-439F-8EFF-3510CD432A7F}"/>
+    <hyperlink ref="B69" r:id="rId30" xr:uid="{5A8A30A1-BAEB-4EE4-A205-A62C6E21B424}"/>
+    <hyperlink ref="B35" r:id="rId31" xr:uid="{C3E50F8F-D05D-4D29-BA00-E4D9AE526EDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
@@ -2112,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAE7EB1-5CD1-4DC8-A640-2D9EEA15B8D4}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2122,93 +2139,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>168</v>
+      <c r="A1" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>185</v>
+      <c r="A4" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>170</v>
+      <c r="A6" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>171</v>
+      <c r="A7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/FoodStore_utforskandeTest.xlsx
+++ b/FoodStore_utforskandeTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liaak\Documents\PVT\Programmering\Foodstore-Postman-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6349A7-909B-4C2A-AB3A-19CA26E8BC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B327EA-5B88-4922-A1F7-541F0D0195B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{52F88BF0-60C5-406F-A569-D6BD3D4E146A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{52F88BF0-60C5-406F-A569-D6BD3D4E146A}"/>
   </bookViews>
   <sheets>
     <sheet name="Kartläggning" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="184">
   <si>
     <t>Kartläggning av REST-api Mataffären</t>
   </si>
@@ -568,51 +568,32 @@
     <t>http://localhost:5173/api/c/brod-och-kakor/brod/baguetter-och-losbrod?size=30&amp;page=0&amp;sort=compareprice-desc</t>
   </si>
   <si>
-    <t xml:space="preserve">RestRoute för att få fram en lista på alla varor: 
-http://localhost:5173/api/leftMenu/categorytree </t>
-  </si>
-  <si>
-    <t>se Kartläggning</t>
-  </si>
-  <si>
     <t>http://localhost:5173/api/c/vegetariskt?size=30&amp;page=0&amp;sort=topRated</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">http://localhost:5173/api/c/skafferi/pasta-ris-och-matgryn?size=30&amp;page=0&amp;sort=topRated </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>http://localhost:5173/api/c/skafferi/pasta-ris-och-matgryn/pasta?size=30&amp;page=0&amp;sort=topRated</t>
   </si>
   <si>
     <t>Underkategori 4</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/api/c/skafferi/pasta-ris-och-matgryn?size=30&amp;page=0&amp;sort=topRated</t>
+  </si>
+  <si>
+    <t>RestRoute för att få fram en lista på alla varor:</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/api/leftMenu/categorytree</t>
+  </si>
+  <si>
+    <t>se flik Kartläggning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,18 +632,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -691,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -707,9 +676,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -726,10 +692,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1052,8 +1014,8 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39:H40"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1092,7 +1054,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -1401,8 +1363,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D34" t="s">
@@ -1420,7 +1382,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D35" t="s">
         <v>42</v>
@@ -1731,7 +1693,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
@@ -2119,18 +2081,19 @@
     <hyperlink ref="B101" r:id="rId29" xr:uid="{25AF198B-932E-439F-8EFF-3510CD432A7F}"/>
     <hyperlink ref="B69" r:id="rId30" xr:uid="{5A8A30A1-BAEB-4EE4-A205-A62C6E21B424}"/>
     <hyperlink ref="B35" r:id="rId31" xr:uid="{C3E50F8F-D05D-4D29-BA00-E4D9AE526EDF}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{4C842DE2-BFF5-434D-AC89-F6F2FDDBE765}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAE7EB1-5CD1-4DC8-A640-2D9EEA15B8D4}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2148,94 +2111,103 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>176</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" xr:uid="{90BBBF98-779F-42CE-AC43-ECF9B675E868}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{2D3BA17E-89B4-47C8-98AE-0189E3B1AD81}"/>
-    <hyperlink ref="A15" r:id="rId3" xr:uid="{E04BDEC7-15C0-4EBB-B4E6-48883EF1A2EF}"/>
-    <hyperlink ref="A17" r:id="rId4" xr:uid="{64485A1A-40C4-470C-BFE3-948FAA36DF32}"/>
-    <hyperlink ref="A19" r:id="rId5" xr:uid="{13029722-A4F9-444C-B376-1202C7160F09}"/>
-    <hyperlink ref="A21" r:id="rId6" xr:uid="{AB312F91-5EB2-49CA-B29A-A6D0B59B3E97}"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{90BBBF98-779F-42CE-AC43-ECF9B675E868}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{2D3BA17E-89B4-47C8-98AE-0189E3B1AD81}"/>
+    <hyperlink ref="A16" r:id="rId3" xr:uid="{E04BDEC7-15C0-4EBB-B4E6-48883EF1A2EF}"/>
+    <hyperlink ref="A18" r:id="rId4" xr:uid="{64485A1A-40C4-470C-BFE3-948FAA36DF32}"/>
+    <hyperlink ref="A20" r:id="rId5" xr:uid="{13029722-A4F9-444C-B376-1202C7160F09}"/>
+    <hyperlink ref="A22" r:id="rId6" xr:uid="{AB312F91-5EB2-49CA-B29A-A6D0B59B3E97}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{B07628A9-B9EC-4B6B-8763-BE65FAA1E857}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
